--- a/output/1Y_P11_KFSDIV.xlsx
+++ b/output/1Y_P11_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.0875</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.1692</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="F3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0081</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.0872</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E4" s="1">
-        <v>1974.6874</v>
+        <v>1970.7375</v>
       </c>
       <c r="F4" s="1">
-        <v>901.941</v>
+        <v>900.1386</v>
       </c>
       <c r="H4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1282</v>
+        <v>10.1485</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.0976</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E5" s="1">
-        <v>2876.6284</v>
+        <v>2870.8762</v>
       </c>
       <c r="F5" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="H5" s="1">
-        <v>31923.6713</v>
+        <v>31796.1019</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31923.6713</v>
+        <v>31796.1019</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4289</v>
+        <v>10.4498</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.8505</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E6" s="1">
-        <v>3777.7241</v>
+        <v>3770.1729</v>
       </c>
       <c r="F6" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="H6" s="1">
-        <v>40990.1957</v>
+        <v>40826.4485</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40990.1957</v>
+        <v>40826.4485</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5884</v>
+        <v>10.6096</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1294.4828</v>
+        <v>1291.8943</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8705.5172</v>
+        <v>-8708.1057</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0223</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.8576</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E7" s="1">
-        <v>4699.3406</v>
+        <v>4689.9415</v>
       </c>
       <c r="F7" s="1">
-        <v>858.9366</v>
+        <v>857.1849</v>
       </c>
       <c r="H7" s="1">
-        <v>55722.9016</v>
+        <v>55500.2988</v>
       </c>
       <c r="I7" s="1">
-        <v>1294.4828</v>
+        <v>1291.8943</v>
       </c>
       <c r="J7" s="1">
-        <v>57017.3844</v>
+        <v>56792.1931</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6398</v>
+        <v>10.6611</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10184.9261</v>
+        <v>-10184.5563</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1182</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.5699</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E8" s="1">
-        <v>5558.2772</v>
+        <v>5547.1264</v>
       </c>
       <c r="F8" s="1">
-        <v>810.2631</v>
+        <v>808.6126</v>
       </c>
       <c r="H8" s="1">
-        <v>69866.9886</v>
+        <v>69587.591</v>
       </c>
       <c r="I8" s="1">
-        <v>1109.5567</v>
+        <v>1107.338</v>
       </c>
       <c r="J8" s="1">
-        <v>70976.5453</v>
+        <v>70694.9289</v>
       </c>
       <c r="K8" s="1">
-        <v>60184.9261</v>
+        <v>60184.5563</v>
       </c>
       <c r="L8" s="1">
-        <v>10.828</v>
+        <v>10.8497</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10184.9261</v>
+        <v>-10184.5563</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0591</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.5994</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E9" s="1">
-        <v>6368.5403</v>
+        <v>6355.739</v>
       </c>
       <c r="F9" s="1">
-        <v>748.9247</v>
+        <v>747.4026</v>
       </c>
       <c r="H9" s="1">
-        <v>86608.327</v>
+        <v>86261.3603</v>
       </c>
       <c r="I9" s="1">
-        <v>924.6306</v>
+        <v>922.7816</v>
       </c>
       <c r="J9" s="1">
-        <v>87532.9575</v>
+        <v>87184.1419</v>
       </c>
       <c r="K9" s="1">
-        <v>70369.85219999999</v>
+        <v>70369.1127</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0496</v>
+        <v>11.0717</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2501.2247</v>
+        <v>2496.2069</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7683.7014</v>
+        <v>-7688.3495</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.081</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.6663</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E10" s="1">
-        <v>7117.465</v>
+        <v>7103.1416</v>
       </c>
       <c r="F10" s="1">
-        <v>737.0797</v>
+        <v>735.4946</v>
       </c>
       <c r="H10" s="1">
-        <v>104386.8764</v>
+        <v>103968.6831</v>
       </c>
       <c r="I10" s="1">
-        <v>3240.9292</v>
+        <v>3234.4322</v>
       </c>
       <c r="J10" s="1">
-        <v>107627.8056</v>
+        <v>107203.1152</v>
       </c>
       <c r="K10" s="1">
-        <v>80554.77830000001</v>
+        <v>80553.66899999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.3179</v>
+        <v>11.3406</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10810.2323</v>
+        <v>-10808.608</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1035</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.701</v>
       </c>
       <c r="C11" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D11" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E11" s="1">
-        <v>7854.5447</v>
+        <v>7838.6362</v>
       </c>
       <c r="F11" s="1">
-        <v>735.3398999999999</v>
+        <v>733.7569999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>115469.6614</v>
+        <v>115005.3344</v>
       </c>
       <c r="I11" s="1">
-        <v>2430.6969</v>
+        <v>2425.8241</v>
       </c>
       <c r="J11" s="1">
-        <v>117900.3583</v>
+        <v>117431.1585</v>
       </c>
       <c r="K11" s="1">
-        <v>91365.01059999999</v>
+        <v>91362.277</v>
       </c>
       <c r="L11" s="1">
-        <v>11.6321</v>
+        <v>11.6554</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10810.2323</v>
+        <v>-10808.608</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0023</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.8109</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E12" s="1">
-        <v>8589.884599999999</v>
+        <v>8572.3932</v>
       </c>
       <c r="F12" s="1">
-        <v>782.7319</v>
+        <v>781.0478000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>118634.0374</v>
+        <v>118155.8673</v>
       </c>
       <c r="I12" s="1">
-        <v>1620.4646</v>
+        <v>1617.2161</v>
       </c>
       <c r="J12" s="1">
-        <v>120254.502</v>
+        <v>119773.0833</v>
       </c>
       <c r="K12" s="1">
-        <v>102175.2429</v>
+        <v>102170.8851</v>
       </c>
       <c r="L12" s="1">
-        <v>11.8948</v>
+        <v>11.9186</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>7069.0902</v>
+        <v>7054.7726</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3741.1421</v>
+        <v>-3753.8355</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0598</v>
+        <v>-0.0601</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.9322</v>
       </c>
       <c r="C13" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D13" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E13" s="1">
-        <v>9372.6165</v>
+        <v>9353.441000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1283.3093</v>
+        <v>1279.6026</v>
       </c>
       <c r="H13" s="1">
-        <v>130581.1681</v>
+        <v>130053.0497</v>
       </c>
       <c r="I13" s="1">
-        <v>7879.3225</v>
+        <v>7863.3806</v>
       </c>
       <c r="J13" s="1">
-        <v>138460.4906</v>
+        <v>137916.4303</v>
       </c>
       <c r="K13" s="1">
-        <v>112985.4752</v>
+        <v>112979.4931</v>
       </c>
       <c r="L13" s="1">
-        <v>12.0548</v>
+        <v>12.0789</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-17879.3225</v>
+        <v>-17863.3806</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.063</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.5846</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E14" s="1">
-        <v>10655.9259</v>
+        <v>10633.0436</v>
       </c>
       <c r="F14" s="1">
-        <v>-10655.9259</v>
+        <v>-10633.0436</v>
       </c>
       <c r="H14" s="1">
-        <v>134100.5649</v>
+        <v>133544.6481</v>
       </c>
       <c r="I14" s="1">
         <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>134100.5649</v>
+        <v>133544.6481</v>
       </c>
       <c r="K14" s="1">
-        <v>130864.7977</v>
+        <v>130842.8737</v>
       </c>
       <c r="L14" s="1">
-        <v>12.2809</v>
+        <v>12.3053</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134100.5649</v>
+        <v>133544.6481</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.09719999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.0875</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.1692</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="F3" s="1">
-        <v>975.3971</v>
+        <v>981.3122</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9919.0087</v>
+        <v>-9999.178400000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0081</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.0872</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E4" s="1">
-        <v>1966.723</v>
+        <v>1970.6569</v>
       </c>
       <c r="F4" s="1">
-        <v>739.0999</v>
+        <v>740.5948</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21805.4518</v>
+        <v>21805.3188</v>
       </c>
       <c r="I4" s="1">
-        <v>80.9913</v>
+        <v>0.8216</v>
       </c>
       <c r="J4" s="1">
-        <v>21886.4431</v>
+        <v>21806.1404</v>
       </c>
       <c r="K4" s="1">
-        <v>19919.0087</v>
+        <v>19999.1784</v>
       </c>
       <c r="L4" s="1">
-        <v>10.128</v>
+        <v>10.1485</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8194.548199999999</v>
+        <v>-8227.563599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.08989999999999999</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.0976</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E5" s="1">
-        <v>2705.8229</v>
+        <v>2711.2517</v>
       </c>
       <c r="F5" s="1">
-        <v>898.5599999999999</v>
+        <v>900.356</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30028.1406</v>
+        <v>30028.197</v>
       </c>
       <c r="I5" s="1">
-        <v>1886.4431</v>
+        <v>1773.258</v>
       </c>
       <c r="J5" s="1">
-        <v>31914.5836</v>
+        <v>31801.455</v>
       </c>
       <c r="K5" s="1">
-        <v>28113.5569</v>
+        <v>28226.742</v>
       </c>
       <c r="L5" s="1">
-        <v>10.39</v>
+        <v>10.411</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9971.859399999999</v>
+        <v>-10011.7788</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0009</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.8505</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E6" s="1">
-        <v>3604.3829</v>
+        <v>3611.6077</v>
       </c>
       <c r="F6" s="1">
-        <v>1003.6996</v>
+        <v>1005.7091</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39109.357</v>
+        <v>39109.3775</v>
       </c>
       <c r="I6" s="1">
-        <v>1914.5836</v>
+        <v>1761.4792</v>
       </c>
       <c r="J6" s="1">
-        <v>41023.9406</v>
+        <v>40870.8567</v>
       </c>
       <c r="K6" s="1">
-        <v>38085.4164</v>
+        <v>38238.5208</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5664</v>
+        <v>10.5877</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1217.6203</v>
+        <v>1220.0633</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9673.0227</v>
+        <v>-9714.307500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0212</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.8576</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E7" s="1">
-        <v>4608.0826</v>
+        <v>4617.3168</v>
       </c>
       <c r="F7" s="1">
-        <v>451.9633</v>
+        <v>452.863</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>54640.8</v>
+        <v>54640.8651</v>
       </c>
       <c r="I7" s="1">
-        <v>2241.5609</v>
+        <v>2047.1717</v>
       </c>
       <c r="J7" s="1">
-        <v>56882.3609</v>
+        <v>56688.0368</v>
       </c>
       <c r="K7" s="1">
-        <v>48976.0594</v>
+        <v>49172.8916</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6283</v>
+        <v>10.6497</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5359.2</v>
+        <v>-5380.6459</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1148</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.5699</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E8" s="1">
-        <v>5060.0459</v>
+        <v>5070.1797</v>
       </c>
       <c r="F8" s="1">
-        <v>508.8131</v>
+        <v>509.8215</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63604.2707</v>
+        <v>63604.3908</v>
       </c>
       <c r="I8" s="1">
-        <v>6882.3609</v>
+        <v>6666.5258</v>
       </c>
       <c r="J8" s="1">
-        <v>70486.63159999999</v>
+        <v>70270.91650000001</v>
       </c>
       <c r="K8" s="1">
-        <v>54335.2594</v>
+        <v>54553.5375</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7381</v>
+        <v>10.7597</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6395.7293</v>
+        <v>-6421.2532</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0539</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.5994</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E9" s="1">
-        <v>5568.8589</v>
+        <v>5580.0013</v>
       </c>
       <c r="F9" s="1">
-        <v>313.7535</v>
+        <v>314.4005</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>75733.1403</v>
+        <v>75732.8933</v>
       </c>
       <c r="I9" s="1">
-        <v>10486.6316</v>
+        <v>10245.2725</v>
       </c>
       <c r="J9" s="1">
-        <v>86219.77190000001</v>
+        <v>85978.1658</v>
       </c>
       <c r="K9" s="1">
-        <v>60730.9887</v>
+        <v>60974.7907</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9055</v>
+        <v>10.9274</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2277.0206</v>
+        <v>2281.5809</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-1989.8391</v>
+        <v>-2002.6292</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0712</v>
+        <v>0.0711</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.6663</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E10" s="1">
-        <v>5882.6125</v>
+        <v>5894.4018</v>
       </c>
       <c r="F10" s="1">
-        <v>253.9046</v>
+        <v>254.3992</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>86276.15919999999</v>
+        <v>86276.359</v>
       </c>
       <c r="I10" s="1">
-        <v>18496.7925</v>
+        <v>18242.6433</v>
       </c>
       <c r="J10" s="1">
-        <v>104772.9517</v>
+        <v>104519.0024</v>
       </c>
       <c r="K10" s="1">
-        <v>64997.8485</v>
+        <v>65259.0008</v>
       </c>
       <c r="L10" s="1">
-        <v>11.0491</v>
+        <v>11.0714</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3723.8408</v>
+        <v>-3738.5742</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.08890000000000001</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.701</v>
       </c>
       <c r="C11" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D11" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E11" s="1">
-        <v>6136.517</v>
+        <v>6148.801</v>
       </c>
       <c r="F11" s="1">
-        <v>665.7413</v>
+        <v>667.0882</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90212.9371</v>
+        <v>90212.7485</v>
       </c>
       <c r="I11" s="1">
-        <v>24772.9517</v>
+        <v>24504.0691</v>
       </c>
       <c r="J11" s="1">
-        <v>114985.8889</v>
+        <v>114716.8176</v>
       </c>
       <c r="K11" s="1">
-        <v>68721.68919999999</v>
+        <v>68997.575</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1988</v>
+        <v>11.2213</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9787.062900000001</v>
+        <v>-9826.543</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.8109</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E12" s="1">
-        <v>6802.2583</v>
+        <v>6815.8892</v>
       </c>
       <c r="F12" s="1">
-        <v>1162.4652</v>
+        <v>1164.7831</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>93945.3098</v>
+        <v>93945.44560000001</v>
       </c>
       <c r="I12" s="1">
-        <v>24985.8889</v>
+        <v>24677.5261</v>
       </c>
       <c r="J12" s="1">
-        <v>118931.1987</v>
+        <v>118622.9718</v>
       </c>
       <c r="K12" s="1">
-        <v>78508.7521</v>
+        <v>78824.118</v>
       </c>
       <c r="L12" s="1">
-        <v>11.5416</v>
+        <v>11.5648</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5522.8653</v>
+        <v>5533.9209</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10531.8248</v>
+        <v>-10585.046</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0484</v>
+        <v>-0.0489</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.9322</v>
       </c>
       <c r="C13" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D13" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E13" s="1">
-        <v>7964.7235</v>
+        <v>7980.6723</v>
       </c>
       <c r="F13" s="1">
-        <v>648.4173</v>
+        <v>649.7514</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110966.121</v>
+        <v>110965.6613</v>
       </c>
       <c r="I13" s="1">
-        <v>24454.0641</v>
+        <v>24092.4801</v>
       </c>
       <c r="J13" s="1">
-        <v>135420.185</v>
+        <v>135058.1415</v>
       </c>
       <c r="K13" s="1">
-        <v>94563.4422</v>
+        <v>94943.0849</v>
       </c>
       <c r="L13" s="1">
-        <v>11.8728</v>
+        <v>11.8966</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9033.879000000001</v>
+        <v>-9070.594800000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0503</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.5846</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E14" s="1">
-        <v>8613.140799999999</v>
+        <v>8630.423699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8613.140799999999</v>
+        <v>-8630.423699999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108392.9315</v>
+        <v>108392.9432</v>
       </c>
       <c r="I14" s="1">
-        <v>25420.185</v>
+        <v>25021.8854</v>
       </c>
       <c r="J14" s="1">
-        <v>133813.1165</v>
+        <v>133414.8286</v>
       </c>
       <c r="K14" s="1">
-        <v>103597.3213</v>
+        <v>104013.6797</v>
       </c>
       <c r="L14" s="1">
-        <v>12.0278</v>
+        <v>12.052</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108392.9315</v>
+        <v>108392.9432</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0798</v>
+        <v>-0.0803</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.0875</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.1692</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="F3" s="1">
-        <v>980.314</v>
+        <v>981.3928</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9969.0087</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0081</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.0872</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E4" s="1">
-        <v>1971.6399</v>
+        <v>1970.7375</v>
       </c>
       <c r="F4" s="1">
-        <v>747.7347</v>
+        <v>754.093</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21859.9654</v>
+        <v>21806.211</v>
       </c>
       <c r="I4" s="1">
-        <v>30.9913</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21890.9567</v>
+        <v>21806.211</v>
       </c>
       <c r="K4" s="1">
-        <v>19969.0087</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1281</v>
+        <v>10.1485</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8290.284600000001</v>
+        <v>-8377.520699999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0901</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.0976</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E5" s="1">
-        <v>2719.3746</v>
+        <v>2724.8305</v>
       </c>
       <c r="F5" s="1">
-        <v>912.1314</v>
+        <v>913.9546</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30178.5315</v>
+        <v>30178.5882</v>
       </c>
       <c r="I5" s="1">
-        <v>1740.7067</v>
+        <v>1622.4793</v>
       </c>
       <c r="J5" s="1">
-        <v>31919.2382</v>
+        <v>31801.0675</v>
       </c>
       <c r="K5" s="1">
-        <v>28259.2933</v>
+        <v>28377.5207</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3918</v>
+        <v>10.4144</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10122.4698</v>
+        <v>-10162.9926</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0009</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.8505</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E6" s="1">
-        <v>3631.506</v>
+        <v>3638.7852</v>
       </c>
       <c r="F6" s="1">
-        <v>1022.8884</v>
+        <v>1024.9362</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39403.6561</v>
+        <v>39403.6768</v>
       </c>
       <c r="I6" s="1">
-        <v>1618.237</v>
+        <v>1459.4867</v>
       </c>
       <c r="J6" s="1">
-        <v>41021.8931</v>
+        <v>40863.1635</v>
       </c>
       <c r="K6" s="1">
-        <v>38381.763</v>
+        <v>38540.5133</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5691</v>
+        <v>10.5916</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1223.7186</v>
+        <v>1226.1737</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9875.131600000001</v>
+        <v>-9917.240400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0214</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.8576</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E7" s="1">
-        <v>4654.3944</v>
+        <v>4663.7214</v>
       </c>
       <c r="F7" s="1">
-        <v>469.3253</v>
+        <v>470.2597</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55189.9468</v>
+        <v>55190.0126</v>
       </c>
       <c r="I7" s="1">
-        <v>1743.1054</v>
+        <v>1542.2463</v>
       </c>
       <c r="J7" s="1">
-        <v>56933.0522</v>
+        <v>56732.2589</v>
       </c>
       <c r="K7" s="1">
-        <v>49480.6132</v>
+        <v>49683.9275</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6309</v>
+        <v>10.6533</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5565.0719</v>
+        <v>-5587.3435</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1159</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.5699</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E8" s="1">
-        <v>5123.7197</v>
+        <v>5133.9811</v>
       </c>
       <c r="F8" s="1">
-        <v>529.3717</v>
+        <v>530.4212</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64404.6443</v>
+        <v>64404.7659</v>
       </c>
       <c r="I8" s="1">
-        <v>6178.0334</v>
+        <v>5954.9028</v>
       </c>
       <c r="J8" s="1">
-        <v>70582.6778</v>
+        <v>70359.66869999999</v>
       </c>
       <c r="K8" s="1">
-        <v>55045.6851</v>
+        <v>55271.271</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7433</v>
+        <v>10.7658</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6654.1495</v>
+        <v>-6680.7081</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0545</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.5994</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E9" s="1">
-        <v>5653.0914</v>
+        <v>5664.4023</v>
       </c>
       <c r="F9" s="1">
-        <v>333.5027</v>
+        <v>334.1895</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76878.65150000001</v>
+        <v>76878.4008</v>
       </c>
       <c r="I9" s="1">
-        <v>9523.883900000001</v>
+        <v>9274.194600000001</v>
       </c>
       <c r="J9" s="1">
-        <v>86402.53539999999</v>
+        <v>86152.59540000001</v>
       </c>
       <c r="K9" s="1">
-        <v>61699.8347</v>
+        <v>61951.9791</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9144</v>
+        <v>10.9371</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2305.6739</v>
+        <v>2310.2915</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-2229.7625</v>
+        <v>-2243.5755</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0722</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.6663</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E10" s="1">
-        <v>5986.5941</v>
+        <v>5998.5918</v>
       </c>
       <c r="F10" s="1">
-        <v>274.0959</v>
+        <v>274.6307</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87801.1851</v>
+        <v>87801.3884</v>
       </c>
       <c r="I10" s="1">
-        <v>17294.1214</v>
+        <v>17030.6192</v>
       </c>
       <c r="J10" s="1">
-        <v>105095.3065</v>
+        <v>104832.0076</v>
       </c>
       <c r="K10" s="1">
-        <v>66235.27099999999</v>
+        <v>66505.8461</v>
       </c>
       <c r="L10" s="1">
-        <v>11.0639</v>
+        <v>11.0869</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4019.9732</v>
+        <v>-4035.8907</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0902</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.701</v>
       </c>
       <c r="C11" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D11" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E11" s="1">
-        <v>6260.69</v>
+        <v>6273.2225</v>
       </c>
       <c r="F11" s="1">
-        <v>696.6778</v>
+        <v>698.0869</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92038.4042</v>
+        <v>92038.2118</v>
       </c>
       <c r="I11" s="1">
-        <v>23274.1482</v>
+        <v>22994.7285</v>
       </c>
       <c r="J11" s="1">
-        <v>115312.5524</v>
+        <v>115032.9403</v>
       </c>
       <c r="K11" s="1">
-        <v>70255.2442</v>
+        <v>70541.7368</v>
       </c>
       <c r="L11" s="1">
-        <v>11.2216</v>
+        <v>11.2449</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10241.8598</v>
+        <v>-10283.1696</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.8109</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E12" s="1">
-        <v>6957.3678</v>
+        <v>6971.3095</v>
       </c>
       <c r="F12" s="1">
-        <v>1209.4906</v>
+        <v>1211.9025</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>96087.511</v>
+        <v>96087.6499</v>
       </c>
       <c r="I12" s="1">
-        <v>23032.2884</v>
+        <v>22711.5589</v>
       </c>
       <c r="J12" s="1">
-        <v>119119.7994</v>
+        <v>118799.2087</v>
       </c>
       <c r="K12" s="1">
-        <v>80497.1041</v>
+        <v>80824.90640000001</v>
       </c>
       <c r="L12" s="1">
-        <v>11.5701</v>
+        <v>11.5939</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5634.621</v>
+        <v>5645.9003</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11069.5334</v>
+        <v>-11125.1334</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0494</v>
+        <v>-0.0499</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.9322</v>
       </c>
       <c r="C13" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D13" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E13" s="1">
-        <v>8166.8585</v>
+        <v>8183.212</v>
       </c>
       <c r="F13" s="1">
-        <v>687.1362</v>
+        <v>688.5488</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113782.3053</v>
+        <v>113781.834</v>
       </c>
       <c r="I13" s="1">
-        <v>21962.755</v>
+        <v>21586.4254</v>
       </c>
       <c r="J13" s="1">
-        <v>135745.0603</v>
+        <v>135368.2595</v>
       </c>
       <c r="K13" s="1">
-        <v>97201.2585</v>
+        <v>97595.94010000001</v>
       </c>
       <c r="L13" s="1">
-        <v>11.9019</v>
+        <v>11.9264</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9573.3184</v>
+        <v>-9612.2107</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0513</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.5846</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E14" s="1">
-        <v>8853.9946</v>
+        <v>8871.7608</v>
       </c>
       <c r="F14" s="1">
-        <v>-8853.9946</v>
+        <v>-8871.7608</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>111423.9806</v>
+        <v>111423.9926</v>
       </c>
       <c r="I14" s="1">
-        <v>22389.4366</v>
+        <v>21974.2147</v>
       </c>
       <c r="J14" s="1">
-        <v>133813.4172</v>
+        <v>133398.2073</v>
       </c>
       <c r="K14" s="1">
-        <v>106774.5769</v>
+        <v>107208.1508</v>
       </c>
       <c r="L14" s="1">
-        <v>12.0595</v>
+        <v>12.0842</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111423.9806</v>
+        <v>111423.9926</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.0875</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.1692</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="F3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0081</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.0872</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E4" s="1">
-        <v>1974.6874</v>
+        <v>1970.7375</v>
       </c>
       <c r="F4" s="1">
-        <v>758.2839</v>
+        <v>767.717</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1282</v>
+        <v>10.1485</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8407.2456</v>
+        <v>-8528.875599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.0976</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E5" s="1">
-        <v>2732.9714</v>
+        <v>2738.4546</v>
       </c>
       <c r="F5" s="1">
-        <v>925.8387</v>
+        <v>927.6893</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30329.4229</v>
+        <v>30329.4799</v>
       </c>
       <c r="I5" s="1">
-        <v>1592.7544</v>
+        <v>1471.1244</v>
       </c>
       <c r="J5" s="1">
-        <v>31922.1773</v>
+        <v>31800.6043</v>
       </c>
       <c r="K5" s="1">
-        <v>28407.2456</v>
+        <v>28528.8756</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3943</v>
+        <v>10.4179</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10274.5871</v>
+        <v>-10315.7195</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0009</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.8505</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E6" s="1">
-        <v>3658.81</v>
+        <v>3666.1439</v>
       </c>
       <c r="F6" s="1">
-        <v>1042.3604</v>
+        <v>1026.0391</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39699.918</v>
+        <v>39699.9389</v>
       </c>
       <c r="I6" s="1">
-        <v>1318.1673</v>
+        <v>1155.4049</v>
       </c>
       <c r="J6" s="1">
-        <v>41018.0853</v>
+        <v>40855.3438</v>
       </c>
       <c r="K6" s="1">
-        <v>38681.8327</v>
+        <v>38844.5951</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5722</v>
+        <v>10.5955</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1229.8371</v>
+        <v>1232.3046</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10080.2949</v>
+        <v>-9923.1003</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0216</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.8576</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E7" s="1">
-        <v>4701.1705</v>
+        <v>4692.183</v>
       </c>
       <c r="F7" s="1">
-        <v>487.0759</v>
+        <v>506.454</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55744.5989</v>
+        <v>55526.8242</v>
       </c>
       <c r="I7" s="1">
-        <v>1237.8723</v>
+        <v>1232.3046</v>
       </c>
       <c r="J7" s="1">
-        <v>56982.4712</v>
+        <v>56759.1288</v>
       </c>
       <c r="K7" s="1">
-        <v>49991.9648</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6339</v>
+        <v>10.656</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5775.5517</v>
+        <v>-6017.383</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1169</v>
+        <v>0.1161</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.5699</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E8" s="1">
-        <v>5188.2464</v>
+        <v>5198.637</v>
       </c>
       <c r="F8" s="1">
-        <v>550.4906999999999</v>
+        <v>551.5824</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>65215.7385</v>
+        <v>65215.8617</v>
       </c>
       <c r="I8" s="1">
-        <v>5462.3206</v>
+        <v>5214.9216</v>
       </c>
       <c r="J8" s="1">
-        <v>70678.0591</v>
+        <v>70430.7833</v>
       </c>
       <c r="K8" s="1">
-        <v>55767.5165</v>
+        <v>56017.383</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7488</v>
+        <v>10.7754</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6919.6136</v>
+        <v>-6947.235</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0552</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.5994</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E9" s="1">
-        <v>5738.7372</v>
+        <v>5750.2194</v>
       </c>
       <c r="F9" s="1">
-        <v>353.9365</v>
+        <v>354.6645</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78043.382</v>
+        <v>78043.1275</v>
       </c>
       <c r="I9" s="1">
-        <v>8542.707</v>
+        <v>8267.686600000001</v>
       </c>
       <c r="J9" s="1">
-        <v>86586.08900000001</v>
+        <v>86310.8141</v>
       </c>
       <c r="K9" s="1">
-        <v>62687.1301</v>
+        <v>62964.618</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9235</v>
+        <v>10.95</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2334.7109</v>
+        <v>2339.3867</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-2478.6127</v>
+        <v>-2493.4852</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0732</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.6663</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E10" s="1">
-        <v>6092.6736</v>
+        <v>6104.8839</v>
       </c>
       <c r="F10" s="1">
-        <v>295.1183</v>
+        <v>295.6949</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89356.9791</v>
+        <v>89357.186</v>
       </c>
       <c r="I10" s="1">
-        <v>16064.0943</v>
+        <v>15774.2013</v>
       </c>
       <c r="J10" s="1">
-        <v>105421.0734</v>
+        <v>105131.3874</v>
       </c>
       <c r="K10" s="1">
-        <v>67500.4537</v>
+        <v>67797.4899</v>
       </c>
       <c r="L10" s="1">
-        <v>11.079</v>
+        <v>11.1055</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4328.2936</v>
+        <v>-4345.4439</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0915</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.701</v>
       </c>
       <c r="C11" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D11" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E11" s="1">
-        <v>6387.7919</v>
+        <v>6400.5789</v>
       </c>
       <c r="F11" s="1">
-        <v>728.8753</v>
+        <v>730.3493</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93906.92909999999</v>
+        <v>93906.73269999999</v>
       </c>
       <c r="I11" s="1">
-        <v>21735.8007</v>
+        <v>21428.7574</v>
       </c>
       <c r="J11" s="1">
-        <v>115642.7298</v>
+        <v>115335.4901</v>
       </c>
       <c r="K11" s="1">
-        <v>71828.7473</v>
+        <v>72142.9338</v>
       </c>
       <c r="L11" s="1">
-        <v>11.2447</v>
+        <v>11.2713</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10715.1963</v>
+        <v>-10758.4103</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.8109</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E12" s="1">
-        <v>7116.6673</v>
+        <v>7130.9281</v>
       </c>
       <c r="F12" s="1">
-        <v>1258.4818</v>
+        <v>1260.9915</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98287.5799</v>
+        <v>98287.7219</v>
       </c>
       <c r="I12" s="1">
-        <v>21020.6044</v>
+        <v>20670.3471</v>
       </c>
       <c r="J12" s="1">
-        <v>119308.1842</v>
+        <v>118958.0691</v>
       </c>
       <c r="K12" s="1">
-        <v>82543.9436</v>
+        <v>82901.3441</v>
       </c>
       <c r="L12" s="1">
-        <v>11.5987</v>
+        <v>11.6256</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5749.0127</v>
+        <v>5760.521</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11631.7541</v>
+        <v>-11689.8366</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0504</v>
+        <v>-0.0509</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.9322</v>
       </c>
       <c r="C13" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D13" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E13" s="1">
-        <v>8375.149100000001</v>
+        <v>8391.9197</v>
       </c>
       <c r="F13" s="1">
-        <v>727.8662</v>
+        <v>729.3615</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116684.2523</v>
+        <v>116683.7689</v>
       </c>
       <c r="I13" s="1">
-        <v>19388.8503</v>
+        <v>18980.5105</v>
       </c>
       <c r="J13" s="1">
-        <v>136073.1026</v>
+        <v>135664.2795</v>
       </c>
       <c r="K13" s="1">
-        <v>99924.7104</v>
+        <v>100351.7017</v>
       </c>
       <c r="L13" s="1">
-        <v>11.9311</v>
+        <v>11.9581</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10140.7779</v>
+        <v>-10181.9596</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0523</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.5846</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E14" s="1">
-        <v>9103.015299999999</v>
+        <v>9121.281199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9103.015299999999</v>
+        <v>-9121.281199999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114557.8067</v>
+        <v>114557.8191</v>
       </c>
       <c r="I14" s="1">
-        <v>19248.0724</v>
+        <v>18798.551</v>
       </c>
       <c r="J14" s="1">
-        <v>133805.8791</v>
+        <v>133356.37</v>
       </c>
       <c r="K14" s="1">
-        <v>110065.4883</v>
+        <v>110533.6612</v>
       </c>
       <c r="L14" s="1">
-        <v>12.0911</v>
+        <v>12.1182</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114557.8067</v>
+        <v>114557.8191</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08400000000000001</v>
+        <v>-0.08450000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.0875</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.1692</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E3" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="F3" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10080.9913</v>
+        <v>10040.761</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0081</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.0872</v>
       </c>
       <c r="C4" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E4" s="1">
-        <v>1974.6874</v>
+        <v>1970.7375</v>
       </c>
       <c r="F4" s="1">
-        <v>771.9258</v>
+        <v>781.3863</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21893.7544</v>
+        <v>21806.211</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.1282</v>
+        <v>10.1485</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8558.4956</v>
+        <v>-8680.732599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.0976</v>
       </c>
       <c r="C5" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D5" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E5" s="1">
-        <v>2746.6132</v>
+        <v>2752.1238</v>
       </c>
       <c r="F5" s="1">
-        <v>939.6824</v>
+        <v>941.5607</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30480.8148</v>
+        <v>30480.8721</v>
       </c>
       <c r="I5" s="1">
-        <v>1441.5044</v>
+        <v>1319.2674</v>
       </c>
       <c r="J5" s="1">
-        <v>31922.3192</v>
+        <v>31800.1395</v>
       </c>
       <c r="K5" s="1">
-        <v>28558.4956</v>
+        <v>28680.7326</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3977</v>
+        <v>10.4213</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10428.219</v>
+        <v>-10469.967</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0009</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.8505</v>
       </c>
       <c r="C6" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D6" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E6" s="1">
-        <v>3686.2956</v>
+        <v>3693.6845</v>
       </c>
       <c r="F6" s="1">
-        <v>1015.0026</v>
+        <v>997.8846</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39998.1501</v>
+        <v>39998.1711</v>
       </c>
       <c r="I6" s="1">
-        <v>1013.2854</v>
+        <v>849.3005000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>41011.4355</v>
+        <v>40847.4716</v>
       </c>
       <c r="K6" s="1">
-        <v>38986.7146</v>
+        <v>39150.6995</v>
       </c>
       <c r="L6" s="1">
-        <v>10.5761</v>
+        <v>10.5994</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1235.9759</v>
+        <v>1238.4557</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9777.309499999999</v>
+        <v>-9610.844800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0217</v>
+        <v>-0.0228</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.8576</v>
       </c>
       <c r="C7" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D7" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E7" s="1">
-        <v>4701.2981</v>
+        <v>4691.5691</v>
       </c>
       <c r="F7" s="1">
-        <v>552.3374</v>
+        <v>572.588</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55746.1129</v>
+        <v>55519.5598</v>
       </c>
       <c r="I7" s="1">
-        <v>1235.9759</v>
+        <v>1238.4557</v>
       </c>
       <c r="J7" s="1">
-        <v>56982.0888</v>
+        <v>56758.0155</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.6354</v>
+        <v>10.6574</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6549.3964</v>
+        <v>-6803.1475</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.117</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.5699</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E8" s="1">
-        <v>5253.6356</v>
+        <v>5264.1571</v>
       </c>
       <c r="F8" s="1">
-        <v>572.1818</v>
+        <v>573.3167</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>66037.67389999999</v>
+        <v>66037.79859999999</v>
       </c>
       <c r="I8" s="1">
-        <v>4686.5795</v>
+        <v>4435.3082</v>
       </c>
       <c r="J8" s="1">
-        <v>70724.25350000001</v>
+        <v>70473.1069</v>
       </c>
       <c r="K8" s="1">
-        <v>56549.3964</v>
+        <v>56803.1475</v>
       </c>
       <c r="L8" s="1">
-        <v>10.7639</v>
+        <v>10.7905</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7192.268</v>
+        <v>-7220.9812</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0559</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.5994</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E9" s="1">
-        <v>5825.8174</v>
+        <v>5837.4738</v>
       </c>
       <c r="F9" s="1">
-        <v>375.0732</v>
+        <v>375.8439</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79227.62089999999</v>
+        <v>79227.36259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>7494.3115</v>
+        <v>7214.3271</v>
       </c>
       <c r="J9" s="1">
-        <v>86721.93240000001</v>
+        <v>86441.6897</v>
       </c>
       <c r="K9" s="1">
-        <v>63741.6644</v>
+        <v>64024.1286</v>
       </c>
       <c r="L9" s="1">
-        <v>10.9412</v>
+        <v>10.9678</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2364.136</v>
+        <v>2368.8707</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-2736.6341</v>
+        <v>-2752.6037</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0743</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.6663</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E10" s="1">
-        <v>6200.8906</v>
+        <v>6213.3177</v>
       </c>
       <c r="F10" s="1">
-        <v>316.9985</v>
+        <v>317.6187</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90944.12119999999</v>
+        <v>90944.3318</v>
       </c>
       <c r="I10" s="1">
-        <v>14757.6774</v>
+        <v>14461.7234</v>
       </c>
       <c r="J10" s="1">
-        <v>105701.7986</v>
+        <v>105406.0552</v>
       </c>
       <c r="K10" s="1">
-        <v>68842.43459999999</v>
+        <v>69145.603</v>
       </c>
       <c r="L10" s="1">
-        <v>11.102</v>
+        <v>11.1286</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4649.1957</v>
+        <v>-4667.6294</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.701</v>
       </c>
       <c r="C11" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D11" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E11" s="1">
-        <v>6517.8891</v>
+        <v>6530.9365</v>
       </c>
       <c r="F11" s="1">
-        <v>762.3787</v>
+        <v>763.92</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95819.4877</v>
+        <v>95819.2873</v>
       </c>
       <c r="I11" s="1">
-        <v>20108.4817</v>
+        <v>19794.0941</v>
       </c>
       <c r="J11" s="1">
-        <v>115927.9694</v>
+        <v>115613.3814</v>
       </c>
       <c r="K11" s="1">
-        <v>73491.6303</v>
+        <v>73813.23239999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.2754</v>
+        <v>11.3021</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11207.729</v>
+        <v>-11252.9242</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.8109</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E12" s="1">
-        <v>7280.2678</v>
+        <v>7294.8565</v>
       </c>
       <c r="F12" s="1">
-        <v>1309.5146</v>
+        <v>1312.1262</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100547.0503</v>
+        <v>100547.1957</v>
       </c>
       <c r="I12" s="1">
-        <v>18900.7527</v>
+        <v>18541.1698</v>
       </c>
       <c r="J12" s="1">
-        <v>119447.803</v>
+        <v>119088.3655</v>
       </c>
       <c r="K12" s="1">
-        <v>84699.3593</v>
+        <v>85066.1566</v>
       </c>
       <c r="L12" s="1">
-        <v>11.6341</v>
+        <v>11.6611</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5866.1002</v>
+        <v>5877.8428</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12219.4744</v>
+        <v>-12280.1471</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0515</v>
+        <v>-0.0519</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.9322</v>
       </c>
       <c r="C13" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D13" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E13" s="1">
-        <v>8589.782300000001</v>
+        <v>8606.9827</v>
       </c>
       <c r="F13" s="1">
-        <v>770.7002</v>
+        <v>772.2823</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119674.5655</v>
+        <v>119674.0698</v>
       </c>
       <c r="I13" s="1">
-        <v>16681.2783</v>
+        <v>16261.0228</v>
       </c>
       <c r="J13" s="1">
-        <v>136355.8438</v>
+        <v>135935.0926</v>
       </c>
       <c r="K13" s="1">
-        <v>102784.9339</v>
+        <v>103224.1465</v>
       </c>
       <c r="L13" s="1">
-        <v>11.966</v>
+        <v>11.9931</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10737.5488</v>
+        <v>-10781.1378</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0534</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.5846</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E14" s="1">
-        <v>9360.4825</v>
+        <v>9379.264999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9360.4825</v>
+        <v>-9379.264999999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117797.9281</v>
+        <v>117797.9408</v>
       </c>
       <c r="I14" s="1">
-        <v>15943.7295</v>
+        <v>15479.8849</v>
       </c>
       <c r="J14" s="1">
-        <v>133741.6576</v>
+        <v>133277.8258</v>
       </c>
       <c r="K14" s="1">
-        <v>113522.4827</v>
+        <v>114005.2843</v>
       </c>
       <c r="L14" s="1">
-        <v>12.1278</v>
+        <v>12.155</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117797.9281</v>
+        <v>117797.9408</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0862</v>
+        <v>-0.0867</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2809</v>
+        <v>12.3053</v>
       </c>
       <c r="D3" s="1">
-        <v>12.0278</v>
+        <v>12.052</v>
       </c>
       <c r="E3" s="1">
-        <v>12.0595</v>
+        <v>12.0842</v>
       </c>
       <c r="F3" s="1">
-        <v>12.0911</v>
+        <v>12.1182</v>
       </c>
       <c r="G3" s="1">
-        <v>12.1278</v>
+        <v>12.155</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2442</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3476</v>
+        <v>0.3354</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3304</v>
+        <v>0.3206</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3324</v>
+        <v>0.3222</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3343</v>
+        <v>0.3236</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3353</v>
+        <v>0.3244</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2048</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2242</v>
+        <v>0.2241</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1996</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2024</v>
+        <v>0.2028</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2053</v>
+        <v>0.2055</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2079</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.0931</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4596</v>
+        <v>1.406</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5538</v>
+        <v>1.5015</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5419</v>
+        <v>1.4889</v>
       </c>
       <c r="F6" s="4">
-        <v>1.5295</v>
+        <v>1.4755</v>
       </c>
       <c r="G6" s="4">
-        <v>1.5151</v>
+        <v>1.4608</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2293</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2681</v>
+        <v>0.2591</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2628</v>
+        <v>0.2536</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2574</v>
+        <v>0.2478</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2512</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10864.7977</v>
+        <v>10842.8737</v>
       </c>
       <c r="D8" s="1">
-        <v>9017.506299999999</v>
+        <v>9035.565000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>9164.013499999999</v>
+        <v>9182.3655</v>
       </c>
       <c r="F8" s="1">
-        <v>9313.5607</v>
+        <v>9332.2122</v>
       </c>
       <c r="G8" s="1">
-        <v>9466.212100000001</v>
+        <v>9485.1692</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P11_KFSDIV.xlsx
+++ b/output/1Y_P11_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>11121.5152</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2971</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2587</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2212</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
